--- a/[5] Tester Results/TEST_DATE_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_DATE_PARAMETRIC.xlsx
@@ -502,38 +502,20 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.20553722850238</v>
+        <v>0.3880983182406212</v>
       </c>
       <c r="D2" t="n">
-        <v>7.755138725123906e-09</v>
+        <v>0.6790247961112807</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7.925448186618667e-09</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>1.341593019389363</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.400653594771239</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -547,16 +529,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.762702634775692</v>
+        <v>19.38569513877541</v>
       </c>
       <c r="D3" t="n">
-        <v>0.009876548109747682</v>
+        <v>3.248114665262927e-08</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006824803704016391</v>
+        <v>6.355072001973383e-08</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -565,7 +547,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -574,10 +556,10 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-0.6155349004499333</v>
+        <v>-1.067202700154235</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.9529411764705955</v>
+        <v>-3.105882352941183</v>
       </c>
     </row>
     <row r="4">
@@ -592,16 +574,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.6274200883986</v>
+        <v>19.31242962357544</v>
       </c>
       <c r="D4" t="n">
-        <v>3.003899278053698e-07</v>
+        <v>3.442902910774928e-08</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2.810039845480006e-06</v>
+        <v>7.351804198751921e-08</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -610,7 +592,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -619,10 +601,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-1.105603612929852</v>
+        <v>-1.062647562388847</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.943790849673203</v>
+        <v>-3.090196078431376</v>
       </c>
     </row>
     <row r="5">
@@ -637,10 +619,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57.83839802858223</v>
+        <v>61.89054773980612</v>
       </c>
       <c r="D5" t="n">
-        <v>2.400615120757856e-19</v>
+        <v>2.521071492613572e-20</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -664,10 +646,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-2.302977539825438</v>
+        <v>-2.324476748322679</v>
       </c>
       <c r="K5" t="n">
-        <v>-43.5388888888889</v>
+        <v>-18.06960784313726</v>
       </c>
     </row>
     <row r="6">
@@ -682,10 +664,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57.88877502912391</v>
+        <v>60.27356503067404</v>
       </c>
       <c r="D6" t="n">
-        <v>2.333309752768372e-19</v>
+        <v>6.146453195100966e-20</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -709,10 +691,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>-2.308960229102355</v>
+        <v>-2.283469935852408</v>
       </c>
       <c r="K6" t="n">
-        <v>-43.14860130718954</v>
+        <v>-17.67732750183569</v>
       </c>
     </row>
     <row r="7">
@@ -727,10 +709,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>53.78213985976276</v>
+        <v>54.06158870784284</v>
       </c>
       <c r="D7" t="n">
-        <v>2.457095131504668e-18</v>
+        <v>2.088426723817154e-18</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -754,10 +736,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>-2.224652997726526</v>
+        <v>-2.148183973433485</v>
       </c>
       <c r="K7" t="n">
-        <v>-38.74186928104575</v>
+        <v>-16.87013235960013</v>
       </c>
     </row>
     <row r="8">
@@ -772,10 +754,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>64.01186184997773</v>
+        <v>60.22004531840155</v>
       </c>
       <c r="D8" t="n">
-        <v>7.956191874099444e-21</v>
+        <v>6.331607253874954e-20</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -799,10 +781,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-2.267290108193865</v>
+        <v>-2.26032869340962</v>
       </c>
       <c r="K8" t="n">
-        <v>-19.47866666666667</v>
+        <v>-6.307261437908496</v>
       </c>
     </row>
     <row r="9">
@@ -817,20 +799,38 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2647366585131284</v>
+        <v>7.81897646655357</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7677658167328619</v>
+        <v>0.000588647545527053</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001367157514081452</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tukey HSD</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.6724709572305172</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-4.225441176470579</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>96.88903498151836</v>
+        <v>66.75813613283987</v>
       </c>
       <c r="D10" t="n">
-        <v>9.682371703400735e-28</v>
+        <v>1.834404790167306e-21</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-2.581858967105382</v>
+        <v>-2.138230598942572</v>
       </c>
       <c r="K10" t="n">
-        <v>-6198.364346405228</v>
+        <v>-894.023290849673</v>
       </c>
     </row>
     <row r="11">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8861560680628824</v>
+        <v>1.903499377190022</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4143841683615007</v>
+        <v>0.1526290117123864</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -916,20 +916,38 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.363237322899954</v>
+        <v>12.20545924475267</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09761063583541832</v>
+        <v>1.226928457537739e-05</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3.340327527812104e-05</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tukey HSD</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.9271230255657691</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-3.566013071895423</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -943,20 +961,38 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.273014082210896</v>
+        <v>11.95154262232142</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2829935896419739</v>
+        <v>1.526855391076516e-05</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.596888732226855e-05</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tukey HSD</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.9233691233010768</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-3.532679738562088</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -970,16 +1006,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28.53221120344134</v>
+        <v>44.36311724784998</v>
       </c>
       <c r="D14" t="n">
-        <v>3.154518170147674e-11</v>
+        <v>7.31700483066295e-16</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1.179156772224133e-11</v>
+        <v>4.773959005888173e-15</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -997,10 +1033,10 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-1.296020320886741</v>
+        <v>-1.661805683756076</v>
       </c>
       <c r="K14" t="n">
-        <v>-66.46503267973858</v>
+        <v>-35.68562091503268</v>
       </c>
     </row>
     <row r="15">
@@ -1015,16 +1051,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29.10115285759785</v>
+        <v>44.33498191882127</v>
       </c>
       <c r="D15" t="n">
-        <v>2.091362530725202e-11</v>
+        <v>7.447523478810517e-16</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>7.900458065535076e-12</v>
+        <v>4.773959005888173e-15</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1042,10 +1078,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>-1.310494612340107</v>
+        <v>-1.659037243540421</v>
       </c>
       <c r="K15" t="n">
-        <v>-66.39514705882357</v>
+        <v>-34.38148327956309</v>
       </c>
     </row>
     <row r="16">
@@ -1060,16 +1096,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26.96583047732078</v>
+        <v>45.7838716788651</v>
       </c>
       <c r="D16" t="n">
-        <v>9.89680917987826e-11</v>
+        <v>3.012477119218036e-16</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>3.949951477011382e-11</v>
+        <v>4.551914400963142e-15</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1087,10 +1123,10 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-1.256636513645144</v>
+        <v>-1.684066292562173</v>
       </c>
       <c r="K16" t="n">
-        <v>-59.00731699346404</v>
+        <v>-31.98988510932654</v>
       </c>
     </row>
     <row r="17">
@@ -1105,16 +1141,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16.33867930846523</v>
+        <v>36.48191632022745</v>
       </c>
       <c r="D17" t="n">
-        <v>3.806187464199434e-07</v>
+        <v>1.228182339092463e-13</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>2.062457794549388e-07</v>
+        <v>4.651834473179406e-14</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1132,10 +1168,10 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-1.014698758452576</v>
+        <v>-1.502958464160945</v>
       </c>
       <c r="K17" t="n">
-        <v>-22.28013071895423</v>
+        <v>-11.19768300653595</v>
       </c>
     </row>
     <row r="18">
@@ -1150,38 +1186,20 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.152379696639565</v>
+        <v>0.4002900302238592</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001079154551460984</v>
+        <v>0.6708393416725493</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.001049995034021478</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>0.7638417277451475</v>
-      </c>
-      <c r="K18" t="n">
-        <v>27.0267614379085</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1195,16 +1213,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10.16384214626844</v>
+        <v>36.10178656961966</v>
       </c>
       <c r="D19" t="n">
-        <v>7.251891236076773e-05</v>
+        <v>1.586779404528453e-13</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>5.720821467936066e-05</v>
+        <v>1.805222638040505e-13</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1222,10 +1240,10 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-0.8172169590139058</v>
+        <v>-1.479408234216153</v>
       </c>
       <c r="K19" t="n">
-        <v>-5150.253986928101</v>
+        <v>-1486.281107843137</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/TEST_DATE_PARAMETRIC.xlsx
+++ b/[5] Tester Results/TEST_DATE_PARAMETRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,20 +502,38 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3880983182406212</v>
+        <v>19.38569513877541</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6790247961112807</v>
+        <v>3.248114665262927e-08</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.355072001973383e-08</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Tukey HSD</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>May20</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.067202700154235</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-3.105882352941183</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -525,20 +543,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.38569513877541</v>
+        <v>61.89054773980612</v>
       </c>
       <c r="D3" t="n">
-        <v>3.248114665262927e-08</v>
+        <v>2.521071492613572e-20</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>6.355072001973383e-08</v>
+        <v>4.551914400963142e-15</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -547,19 +565,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-1.067202700154235</v>
+        <v>-2.324476748322679</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.105882352941183</v>
+        <v>-18.06960784313726</v>
       </c>
     </row>
     <row r="4">
@@ -570,20 +588,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.31242962357544</v>
+        <v>60.27356503067404</v>
       </c>
       <c r="D4" t="n">
-        <v>3.442902910774928e-08</v>
+        <v>6.146453195100966e-20</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>7.351804198751921e-08</v>
+        <v>4.551914400963142e-15</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -592,19 +610,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-1.062647562388847</v>
+        <v>-2.283469935852408</v>
       </c>
       <c r="K4" t="n">
-        <v>-3.090196078431376</v>
+        <v>-17.67732750183569</v>
       </c>
     </row>
     <row r="5">
@@ -615,14 +633,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61.89054773980612</v>
+        <v>54.06158870784284</v>
       </c>
       <c r="D5" t="n">
-        <v>2.521071492613572e-20</v>
+        <v>2.088426723817154e-18</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -646,10 +664,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-2.324476748322679</v>
+        <v>-2.148183973433485</v>
       </c>
       <c r="K5" t="n">
-        <v>-18.06960784313726</v>
+        <v>-16.87013235960013</v>
       </c>
     </row>
     <row r="6">
@@ -660,14 +678,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60.27356503067404</v>
+        <v>60.22004531840155</v>
       </c>
       <c r="D6" t="n">
-        <v>6.146453195100966e-20</v>
+        <v>6.331607253874954e-20</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -691,10 +709,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>-2.283469935852408</v>
+        <v>-2.26032869340962</v>
       </c>
       <c r="K6" t="n">
-        <v>-17.67732750183569</v>
+        <v>-6.307261437908496</v>
       </c>
     </row>
     <row r="7">
@@ -705,20 +723,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54.06158870784284</v>
+        <v>7.81897646655357</v>
       </c>
       <c r="D7" t="n">
-        <v>2.088426723817154e-18</v>
+        <v>0.000588647545527053</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>4.551914400963142e-15</v>
+        <v>0.001367157514081452</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -736,10 +754,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>-2.148183973433485</v>
+        <v>-0.6724709572305172</v>
       </c>
       <c r="K7" t="n">
-        <v>-16.87013235960013</v>
+        <v>-4.225441176470579</v>
       </c>
     </row>
     <row r="8">
@@ -750,14 +768,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60.22004531840155</v>
+        <v>66.75813613283987</v>
       </c>
       <c r="D8" t="n">
-        <v>6.331607253874954e-20</v>
+        <v>1.834404790167306e-21</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -781,34 +799,34 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-2.26032869340962</v>
+        <v>-2.138230598942572</v>
       </c>
       <c r="K8" t="n">
-        <v>-6.307261437908496</v>
+        <v>-894.023290849673</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.81897646655357</v>
+        <v>12.20545924475267</v>
       </c>
       <c r="D9" t="n">
-        <v>0.000588647545527053</v>
+        <v>1.226928457537739e-05</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001367157514081452</v>
+        <v>3.340327527812104e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -817,43 +835,43 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-0.6724709572305172</v>
+        <v>-0.9271230255657691</v>
       </c>
       <c r="K9" t="n">
-        <v>-4.225441176470579</v>
+        <v>-3.566013071895423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>66.75813613283987</v>
+        <v>44.36311724784998</v>
       </c>
       <c r="D10" t="n">
-        <v>1.834404790167306e-21</v>
+        <v>7.31700483066295e-16</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>4.551914400963142e-15</v>
+        <v>4.773959005888173e-15</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -871,10 +889,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-2.138230598942572</v>
+        <v>-1.661805683756076</v>
       </c>
       <c r="K10" t="n">
-        <v>-894.023290849673</v>
+        <v>-35.68562091503268</v>
       </c>
     </row>
     <row r="11">
@@ -885,24 +903,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.903499377190022</v>
+        <v>44.33498191882127</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1526290117123864</v>
+        <v>7.447523478810517e-16</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.773959005888173e-15</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tukey HSD</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>April16</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>June26</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>-1.659037243540421</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-34.38148327956309</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -912,20 +948,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12.20545924475267</v>
+        <v>45.7838716788651</v>
       </c>
       <c r="D12" t="n">
-        <v>1.226928457537739e-05</v>
+        <v>3.012477119218036e-16</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>3.340327527812104e-05</v>
+        <v>4.551914400963142e-15</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -934,19 +970,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-0.9271230255657691</v>
+        <v>-1.684066292562173</v>
       </c>
       <c r="K12" t="n">
-        <v>-3.566013071895423</v>
+        <v>-31.98988510932654</v>
       </c>
     </row>
     <row r="13">
@@ -957,20 +993,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11.95154262232142</v>
+        <v>36.48191632022745</v>
       </c>
       <c r="D13" t="n">
-        <v>1.526855391076516e-05</v>
+        <v>1.228182339092463e-13</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>3.596888732226855e-05</v>
+        <v>4.651834473179406e-14</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -979,19 +1015,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-0.9233691233010768</v>
+        <v>-1.502958464160945</v>
       </c>
       <c r="K13" t="n">
-        <v>-3.532679738562088</v>
+        <v>-11.19768300653595</v>
       </c>
     </row>
     <row r="14">
@@ -1002,42 +1038,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>44.36311724784998</v>
+        <v>0.4002900302238592</v>
       </c>
       <c r="D14" t="n">
-        <v>7.31700483066295e-16</v>
+        <v>0.6708393416725493</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4.773959005888173e-15</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>-1.661805683756076</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-35.68562091503268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1047,20 +1065,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>44.33498191882127</v>
+        <v>36.10178656961966</v>
       </c>
       <c r="D15" t="n">
-        <v>7.447523478810517e-16</v>
+        <v>1.586779404528453e-13</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>4.773959005888173e-15</v>
+        <v>1.805222638040505e-13</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1078,171 +1096,9 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>-1.659037243540421</v>
+        <v>-1.479408234216153</v>
       </c>
       <c r="K15" t="n">
-        <v>-34.38148327956309</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PTTA</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>45.7838716788651</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.012477119218036e-16</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4.551914400963142e-15</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>-1.684066292562173</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-31.98988510932654</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>36.48191632022745</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.228182339092463e-13</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4.651834473179406e-14</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>-1.502958464160945</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-11.19768300653595</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.4002900302238592</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.6708393416725493</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>36.10178656961966</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.586779404528453e-13</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.805222638040505e-13</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Tukey HSD</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>-1.479408234216153</v>
-      </c>
-      <c r="K19" t="n">
         <v>-1486.281107843137</v>
       </c>
     </row>
